--- a/Optimization models (Pyomo)/La Guajira/CapProductor.xlsx
+++ b/Optimization models (Pyomo)/La Guajira/CapProductor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\PROYECTO DE QUESO COSTEÑO\FASE III\Diciembre\MODELO DE OPTIMIZACION - Pyomo\Modelo de maximizacion de ganancias\La Guajira\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\HENRY\OptimizationModel\Optimization models (Pyomo)\La Guajira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950970F6-8CCC-4637-8982-5B6310C1AAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657D9EA2-B8A9-4243-91C0-C410FCEE6471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8245522-83EB-45D0-8684-7D774F90F81A}"/>
   </bookViews>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409F3CE1-40D6-4FDC-9E5A-21FC059C6BA1}">
   <dimension ref="A1:D1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1117" workbookViewId="0">
-      <selection activeCell="D1201" sqref="D1201"/>
+    <sheetView tabSelected="1" topLeftCell="A1162" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
